--- a/xlsx/法人_intext.xlsx
+++ b/xlsx/法人_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>政策_政策_政治_法人</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E8%87%AA%E6%B2%BB%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>地方自治團體</t>
+    <t>地方自治团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E7%94%B0%E6%B0%B4%E5%88%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>農田水利會</t>
+    <t>农田水利会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
   </si>
   <si>
-    <t>鄉</t>
+    <t>乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E4%BA%BA</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%AD%E5%B1%B1%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家中山科學研究院</t>
+    <t>国家中山科学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%81%8B%E5%8B%95%E8%A8%93%E7%B7%B4%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>國家運動訓練中心</t>
+    <t>国家运动训练中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A1%A8%E6%BC%94%E8%97%9D%E8%A1%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>國家表演藝術中心</t>
+    <t>国家表演艺术中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%81%BD%E5%AE%B3%E9%98%B2%E6%95%91%E7%A7%91%E6%8A%80%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>國家災害防救科技中心</t>
+    <t>国家灾害防救科技中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -113,31 +113,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>同學會</t>
+    <t>同学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>農會</t>
+    <t>农会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>人民團體</t>
+    <t>人民团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>慈善團體</t>
+    <t>慈善团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%BA%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E8%BE%B2%E6%A5%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>行政院農業委員會</t>
+    <t>行政院农业委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B3%95</t>
